--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value225.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value225.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.109114260427806</v>
+        <v>1.261112689971924</v>
       </c>
       <c r="B1">
-        <v>1.129066733918858</v>
+        <v>2.224258899688721</v>
       </c>
       <c r="C1">
-        <v>1.068846920229679</v>
+        <v>4.381772518157959</v>
       </c>
       <c r="D1">
-        <v>1.242467976480628</v>
+        <v>3.003652811050415</v>
       </c>
       <c r="E1">
-        <v>1.666676223922563</v>
+        <v>1.029847502708435</v>
       </c>
     </row>
   </sheetData>
